--- a/src/data/reports/BA345.xlsx
+++ b/src/data/reports/BA345.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="638">
   <si>
     <t>Index</t>
   </si>
@@ -106,16 +106,16 @@
     <t>Imported dbSNP ID</t>
   </si>
   <si>
+    <t>Uncertain_significance</t>
+  </si>
+  <si>
     <t>Likely_pathogenic</t>
   </si>
   <si>
+    <t>Benign</t>
+  </si>
+  <si>
     <t>Pathogenic</t>
-  </si>
-  <si>
-    <t>Benign</t>
-  </si>
-  <si>
-    <t>Uncertain_significance</t>
   </si>
   <si>
     <t>Likely_benign</t>
@@ -2473,8 +2473,11 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -2553,8 +2556,11 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -2725,8 +2731,11 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -2806,10 +2815,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -2897,8 +2906,11 @@
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -2983,6 +2995,9 @@
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
@@ -3073,10 +3088,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -3161,6 +3176,9 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
@@ -3250,6 +3268,9 @@
       <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -3339,6 +3360,9 @@
       <c r="B13">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" t="s">
         <v>32</v>
       </c>
@@ -3690,10 +3714,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
         <v>50</v>
@@ -3778,6 +3802,9 @@
       <c r="B18">
         <v>17</v>
       </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
       <c r="D18" t="s">
         <v>34</v>
       </c>
@@ -3858,6 +3885,9 @@
       <c r="B19">
         <v>18</v>
       </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
       <c r="D19" t="s">
         <v>34</v>
       </c>
@@ -3941,8 +3971,11 @@
       <c r="B20">
         <v>19</v>
       </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -4030,6 +4063,9 @@
       <c r="B21">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
       <c r="D21" t="s">
         <v>34</v>
       </c>
@@ -4119,6 +4155,9 @@
       <c r="B22">
         <v>21</v>
       </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" t="s">
         <v>34</v>
       </c>
@@ -4202,6 +4241,9 @@
       <c r="B23">
         <v>22</v>
       </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
       <c r="D23" t="s">
         <v>32</v>
       </c>
@@ -4292,10 +4334,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
         <v>57</v>
@@ -4374,8 +4416,11 @@
       <c r="B25">
         <v>24</v>
       </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
         <v>58</v>
@@ -4460,8 +4505,11 @@
       <c r="B26">
         <v>25</v>
       </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
         <v>59</v>
@@ -4543,6 +4591,9 @@
       <c r="B27">
         <v>26</v>
       </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
       <c r="D27" t="s">
         <v>34</v>
       </c>
@@ -4626,6 +4677,9 @@
       <c r="B28">
         <v>27</v>
       </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
       <c r="D28" t="s">
         <v>34</v>
       </c>
@@ -4707,7 +4761,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
@@ -4786,8 +4840,11 @@
       <c r="B30">
         <v>29</v>
       </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
         <v>63</v>
@@ -4869,6 +4926,9 @@
       <c r="B31">
         <v>30</v>
       </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
       <c r="D31" t="s">
         <v>32</v>
       </c>
@@ -4958,6 +5018,9 @@
       <c r="B32">
         <v>31</v>
       </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
       <c r="D32" t="s">
         <v>34</v>
       </c>
@@ -5047,8 +5110,11 @@
       <c r="B33">
         <v>32</v>
       </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -5130,6 +5196,9 @@
       <c r="B34">
         <v>33</v>
       </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
       <c r="D34" t="s">
         <v>34</v>
       </c>
@@ -5213,8 +5282,11 @@
       <c r="B35">
         <v>34</v>
       </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
         <v>68</v>
@@ -5293,8 +5365,11 @@
       <c r="B36">
         <v>35</v>
       </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
         <v>69</v>
@@ -5528,10 +5603,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
         <v>72</v>
@@ -5613,6 +5688,9 @@
       <c r="B40">
         <v>39</v>
       </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
       <c r="D40" t="s">
         <v>34</v>
       </c>
@@ -5696,6 +5774,9 @@
       <c r="B41">
         <v>40</v>
       </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
       <c r="D41" t="s">
         <v>32</v>
       </c>
@@ -5786,10 +5867,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
         <v>75</v>
@@ -5877,6 +5958,9 @@
       <c r="B43">
         <v>42</v>
       </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
       <c r="D43" t="s">
         <v>32</v>
       </c>
@@ -5966,6 +6050,9 @@
       <c r="B44">
         <v>43</v>
       </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
       <c r="D44" t="s">
         <v>34</v>
       </c>
@@ -6135,6 +6222,9 @@
       <c r="B46">
         <v>45</v>
       </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
       <c r="D46" t="s">
         <v>34</v>
       </c>
@@ -6215,8 +6305,11 @@
       <c r="B47">
         <v>46</v>
       </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
         <v>80</v>
@@ -6459,10 +6552,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
         <v>83</v>
@@ -6541,6 +6634,9 @@
       <c r="B51">
         <v>50</v>
       </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
       <c r="D51" t="s">
         <v>34</v>
       </c>
@@ -6757,6 +6853,9 @@
       <c r="B54">
         <v>53</v>
       </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
       <c r="D54" t="s">
         <v>34</v>
       </c>
@@ -6846,6 +6945,9 @@
       <c r="B55">
         <v>54</v>
       </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
       <c r="D55" t="s">
         <v>32</v>
       </c>
@@ -7009,6 +7111,9 @@
       <c r="B57">
         <v>56</v>
       </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
       <c r="D57" t="s">
         <v>34</v>
       </c>
@@ -7098,6 +7203,9 @@
       <c r="B58">
         <v>57</v>
       </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
       <c r="D58" t="s">
         <v>34</v>
       </c>
@@ -7182,10 +7290,10 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
         <v>92</v>
